--- a/Data_Sources_and_Preparation/ITC_Trade_Data/841850_GBR_all.xlsx
+++ b/Data_Sources_and_Preparation/ITC_Trade_Data/841850_GBR_all.xlsx
@@ -464,7 +464,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE154"/>
+  <dimension ref="A1:AE155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -14174,6 +14174,9 @@
       <c r="A149">
         <v>1924</v>
       </c>
+      <c r="B149">
+        <v>3683</v>
+      </c>
       <c r="C149">
         <v>1912</v>
       </c>
@@ -14293,6 +14296,9 @@
       <c r="K150">
         <v>1744</v>
       </c>
+      <c r="L150">
+        <v>3683</v>
+      </c>
       <c r="M150">
         <v>5063</v>
       </c>
@@ -14355,6 +14361,9 @@
       <c r="A151">
         <v>1315</v>
       </c>
+      <c r="B151">
+        <v>3158</v>
+      </c>
       <c r="C151">
         <v>2729</v>
       </c>
@@ -14381,6 +14390,9 @@
       </c>
       <c r="K151">
         <v>1449</v>
+      </c>
+      <c r="M151">
+        <v>3683</v>
       </c>
       <c r="N151">
         <v>5063</v>
@@ -14468,6 +14480,12 @@
       <c r="K152">
         <v>2005</v>
       </c>
+      <c r="L152">
+        <v>3158</v>
+      </c>
+      <c r="N152">
+        <v>3683</v>
+      </c>
       <c r="O152">
         <v>3003</v>
       </c>
@@ -14524,9 +14542,15 @@
       <c r="A153">
         <v>1555</v>
       </c>
+      <c r="C153">
+        <v>3073</v>
+      </c>
       <c r="D153">
         <v>296</v>
       </c>
+      <c r="E153">
+        <v>5604</v>
+      </c>
       <c r="F153">
         <v>201805</v>
       </c>
@@ -14544,6 +14568,9 @@
       </c>
       <c r="K153">
         <v>3223</v>
+      </c>
+      <c r="M153">
+        <v>3158</v>
       </c>
       <c r="O153">
         <v>1973</v>
@@ -14619,12 +14646,18 @@
       <c r="K154">
         <v>3533</v>
       </c>
+      <c r="N154">
+        <v>3158</v>
+      </c>
       <c r="O154">
         <v>5063</v>
       </c>
       <c r="P154">
         <v>4483</v>
       </c>
+      <c r="Q154">
+        <v>3073</v>
+      </c>
       <c r="R154">
         <v>3708</v>
       </c>
@@ -14652,6 +14685,9 @@
       <c r="Z154">
         <v>834</v>
       </c>
+      <c r="AA154">
+        <v>5604</v>
+      </c>
       <c r="AB154">
         <v>5754</v>
       </c>
@@ -14663,6 +14699,71 @@
       </c>
       <c r="AE154">
         <v>5576</v>
+      </c>
+    </row>
+    <row r="155" spans="1:31">
+      <c r="A155">
+        <v>4256</v>
+      </c>
+      <c r="F155">
+        <v>201807</v>
+      </c>
+      <c r="G155">
+        <v>2438</v>
+      </c>
+      <c r="H155">
+        <v>1555</v>
+      </c>
+      <c r="I155">
+        <v>1471</v>
+      </c>
+      <c r="J155">
+        <v>1924</v>
+      </c>
+      <c r="K155">
+        <v>3165</v>
+      </c>
+      <c r="O155">
+        <v>3683</v>
+      </c>
+      <c r="P155">
+        <v>3491</v>
+      </c>
+      <c r="R155">
+        <v>3073</v>
+      </c>
+      <c r="S155">
+        <v>3708</v>
+      </c>
+      <c r="T155">
+        <v>1912</v>
+      </c>
+      <c r="U155">
+        <v>3415</v>
+      </c>
+      <c r="W155">
+        <v>296</v>
+      </c>
+      <c r="X155">
+        <v>378</v>
+      </c>
+      <c r="Y155">
+        <v>73</v>
+      </c>
+      <c r="Z155">
+        <v>421</v>
+      </c>
+      <c r="AB155">
+        <v>5604</v>
+      </c>
+      <c r="AC155">
+        <v>5754</v>
+      </c>
+      <c r="AD155">
+        <v>4127</v>
+      </c>
+      <c r="AE155">
+        <v>6388</v>
       </c>
     </row>
   </sheetData>
